--- a/16782_HW1_fall23_v1/16782-HW1/results/16782 Planner Stats.xlsx
+++ b/16782_HW1_fall23_v1/16782-HW1/results/16782 Planner Stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanc\OneDrive\Desktop\Fall_2023\16782\16782_HW1_fall23_v1\16782-HW1\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanc\OneDrive\Desktop\Fall_2023\16782\Planning-in-Robotics\16782_HW1_fall23_v1\16782-HW1\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA69A87-D3EC-42ED-8E52-EB6B8ECAD403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F9F971-C3A5-4264-9C1C-18CC35CA85FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA22D671-1B81-404E-B996-D02E6DFD8495}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
   <si>
     <t>Target Caught</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Path Cost</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="B2:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,6 +526,15 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -534,6 +546,15 @@
       </c>
       <c r="O4">
         <v>690</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <v>426</v>
+      </c>
+      <c r="R4">
+        <v>2885</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
@@ -549,6 +570,15 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -560,6 +590,15 @@
       </c>
       <c r="O5">
         <v>1721</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5">
+        <v>1461</v>
+      </c>
+      <c r="R5">
+        <v>3210</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
@@ -575,6 +614,12 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -586,6 +631,12 @@
       </c>
       <c r="O6">
         <v>544</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6">
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
@@ -601,6 +652,12 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
       <c r="L7" t="s">
         <v>4</v>
       </c>
@@ -612,6 +669,12 @@
       </c>
       <c r="O7">
         <v>-1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7">
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
@@ -627,6 +690,12 @@
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
       <c r="L8" t="s">
         <v>5</v>
       </c>
@@ -637,6 +706,12 @@
         <v>150</v>
       </c>
       <c r="O8">
+        <v>150</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8">
         <v>150</v>
       </c>
     </row>
@@ -653,6 +728,12 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
       <c r="L9" t="s">
         <v>6</v>
       </c>
@@ -663,6 +744,12 @@
         <v>0</v>
       </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9">
         <v>0</v>
       </c>
     </row>
@@ -679,6 +766,12 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
       <c r="L10" t="s">
         <v>7</v>
       </c>
@@ -690,6 +783,12 @@
       </c>
       <c r="O10">
         <v>150</v>
+      </c>
+      <c r="P10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10">
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
@@ -705,6 +804,12 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
       <c r="L11" t="s">
         <v>8</v>
       </c>
@@ -716,6 +821,12 @@
       </c>
       <c r="O11">
         <v>451</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11">
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
@@ -731,6 +842,12 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
       <c r="L12" t="s">
         <v>9</v>
       </c>
@@ -741,6 +858,12 @@
         <v>300</v>
       </c>
       <c r="O12">
+        <v>300</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12">
         <v>300</v>
       </c>
     </row>
@@ -803,6 +926,15 @@
       <c r="E16">
         <v>5344</v>
       </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>5344</v>
+      </c>
+      <c r="H16">
+        <v>2885</v>
+      </c>
       <c r="L16" t="s">
         <v>1</v>
       </c>
@@ -815,8 +947,17 @@
       <c r="O16">
         <v>5344</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16">
+        <v>5344</v>
+      </c>
+      <c r="R16">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -829,6 +970,15 @@
       <c r="E17">
         <v>5244</v>
       </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>5244</v>
+      </c>
+      <c r="H17">
+        <v>3495</v>
+      </c>
       <c r="L17" t="s">
         <v>2</v>
       </c>
@@ -841,8 +991,17 @@
       <c r="O17">
         <v>17773200</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17">
+        <v>13833912</v>
+      </c>
+      <c r="R17">
+        <v>9944163</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -855,6 +1014,12 @@
       <c r="E18">
         <v>791</v>
       </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>791</v>
+      </c>
       <c r="L18" t="s">
         <v>3</v>
       </c>
@@ -867,8 +1032,14 @@
       <c r="O18">
         <v>791</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -881,6 +1052,12 @@
       <c r="E19">
         <v>-1</v>
       </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>791</v>
+      </c>
       <c r="L19" t="s">
         <v>4</v>
       </c>
@@ -893,8 +1070,14 @@
       <c r="O19">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19">
+        <v>72498</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -907,6 +1090,12 @@
       <c r="E20">
         <v>150</v>
       </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>150</v>
+      </c>
       <c r="L20" t="s">
         <v>5</v>
       </c>
@@ -919,8 +1108,14 @@
       <c r="O20">
         <v>2551</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -933,6 +1128,12 @@
       <c r="E21">
         <v>140</v>
       </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>140</v>
+      </c>
       <c r="L21" t="s">
         <v>6</v>
       </c>
@@ -945,8 +1146,14 @@
       <c r="O21">
         <v>2800</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>7</v>
       </c>
@@ -959,6 +1166,12 @@
       <c r="E22">
         <v>150</v>
       </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>298</v>
+      </c>
       <c r="L22" t="s">
         <v>7</v>
       </c>
@@ -971,8 +1184,14 @@
       <c r="O22">
         <v>2500</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -985,6 +1204,12 @@
       <c r="E23">
         <v>451</v>
       </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>451</v>
+      </c>
       <c r="L23" t="s">
         <v>8</v>
       </c>
@@ -997,8 +1222,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>9</v>
       </c>
@@ -1011,6 +1242,12 @@
       <c r="E24">
         <v>600</v>
       </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>600</v>
+      </c>
       <c r="L24" t="s">
         <v>9</v>
       </c>
@@ -1021,6 +1258,12 @@
         <v>1250</v>
       </c>
       <c r="O24">
+        <v>5000</v>
+      </c>
+      <c r="P24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24">
         <v>5000</v>
       </c>
     </row>

--- a/16782_HW1_fall23_v1/16782-HW1/results/16782 Planner Stats.xlsx
+++ b/16782_HW1_fall23_v1/16782-HW1/results/16782 Planner Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanc\OneDrive\Desktop\Fall_2023\16782\Planning-in-Robotics\16782_HW1_fall23_v1\16782-HW1\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F9F971-C3A5-4264-9C1C-18CC35CA85FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8935D6-7197-4654-9DF9-CE728B010ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA22D671-1B81-404E-B996-D02E6DFD8495}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EA22D671-1B81-404E-B996-D02E6DFD8495}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A79534-1819-486F-A111-90AA669741E4}">
   <dimension ref="B2:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="P13" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
         <v>426</v>
       </c>
       <c r="R4">
-        <v>2885</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
@@ -598,7 +598,7 @@
         <v>1461</v>
       </c>
       <c r="R5">
-        <v>3210</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
@@ -620,6 +620,9 @@
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -637,6 +640,9 @@
       </c>
       <c r="Q6">
         <v>322</v>
+      </c>
+      <c r="R6">
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
@@ -658,6 +664,9 @@
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
       <c r="L7" t="s">
         <v>4</v>
       </c>
@@ -675,6 +684,9 @@
       </c>
       <c r="Q7">
         <v>331</v>
+      </c>
+      <c r="R7">
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
@@ -696,6 +708,9 @@
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
       <c r="L8" t="s">
         <v>5</v>
       </c>
@@ -712,6 +727,9 @@
         <v>19</v>
       </c>
       <c r="Q8">
+        <v>150</v>
+      </c>
+      <c r="R8">
         <v>150</v>
       </c>
     </row>
@@ -734,6 +752,9 @@
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
       <c r="L9" t="s">
         <v>6</v>
       </c>
@@ -751,6 +772,9 @@
       </c>
       <c r="Q9">
         <v>0</v>
+      </c>
+      <c r="R9">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
@@ -772,6 +796,9 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
       <c r="L10" t="s">
         <v>7</v>
       </c>
@@ -788,6 +815,9 @@
         <v>19</v>
       </c>
       <c r="Q10">
+        <v>298</v>
+      </c>
+      <c r="R10">
         <v>298</v>
       </c>
     </row>
@@ -810,6 +840,9 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
       <c r="L11" t="s">
         <v>8</v>
       </c>
@@ -827,6 +860,9 @@
       </c>
       <c r="Q11">
         <v>419</v>
+      </c>
+      <c r="R11">
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
@@ -848,6 +884,9 @@
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
       <c r="L12" t="s">
         <v>9</v>
       </c>
@@ -865,6 +904,9 @@
       </c>
       <c r="Q12">
         <v>300</v>
+      </c>
+      <c r="R12">
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
@@ -933,7 +975,7 @@
         <v>5344</v>
       </c>
       <c r="H16">
-        <v>2885</v>
+        <v>2889</v>
       </c>
       <c r="L16" t="s">
         <v>1</v>
@@ -954,7 +996,7 @@
         <v>5344</v>
       </c>
       <c r="R16">
-        <v>2885</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
@@ -977,7 +1019,7 @@
         <v>5244</v>
       </c>
       <c r="H17">
-        <v>3495</v>
+        <v>3447</v>
       </c>
       <c r="L17" t="s">
         <v>2</v>
@@ -998,7 +1040,7 @@
         <v>13833912</v>
       </c>
       <c r="R17">
-        <v>9944163</v>
+        <v>9663174</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
@@ -1020,6 +1062,9 @@
       <c r="G18">
         <v>791</v>
       </c>
+      <c r="H18">
+        <v>558</v>
+      </c>
       <c r="L18" t="s">
         <v>3</v>
       </c>
@@ -1037,6 +1082,9 @@
       </c>
       <c r="Q18">
         <v>791</v>
+      </c>
+      <c r="R18">
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
@@ -1058,6 +1106,9 @@
       <c r="G19">
         <v>791</v>
       </c>
+      <c r="H19">
+        <v>565</v>
+      </c>
       <c r="L19" t="s">
         <v>4</v>
       </c>
@@ -1075,6 +1126,9 @@
       </c>
       <c r="Q19">
         <v>72498</v>
+      </c>
+      <c r="R19">
+        <v>195728</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
@@ -1096,6 +1150,9 @@
       <c r="G20">
         <v>150</v>
       </c>
+      <c r="H20">
+        <v>150</v>
+      </c>
       <c r="L20" t="s">
         <v>5</v>
       </c>
@@ -1112,6 +1169,9 @@
         <v>19</v>
       </c>
       <c r="Q20">
+        <v>5050</v>
+      </c>
+      <c r="R20">
         <v>5050</v>
       </c>
     </row>
@@ -1134,6 +1194,9 @@
       <c r="G21">
         <v>140</v>
       </c>
+      <c r="H21">
+        <v>140</v>
+      </c>
       <c r="L21" t="s">
         <v>6</v>
       </c>
@@ -1150,6 +1213,9 @@
         <v>19</v>
       </c>
       <c r="Q21">
+        <v>2800</v>
+      </c>
+      <c r="R21">
         <v>2800</v>
       </c>
     </row>
@@ -1172,6 +1238,9 @@
       <c r="G22">
         <v>298</v>
       </c>
+      <c r="H22">
+        <v>298</v>
+      </c>
       <c r="L22" t="s">
         <v>7</v>
       </c>
@@ -1188,6 +1257,9 @@
         <v>19</v>
       </c>
       <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>0</v>
       </c>
     </row>
@@ -1210,6 +1282,9 @@
       <c r="G23">
         <v>451</v>
       </c>
+      <c r="H23">
+        <v>435</v>
+      </c>
       <c r="L23" t="s">
         <v>8</v>
       </c>
@@ -1226,6 +1301,9 @@
         <v>19</v>
       </c>
       <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>0</v>
       </c>
     </row>
@@ -1248,6 +1326,9 @@
       <c r="G24">
         <v>600</v>
       </c>
+      <c r="H24">
+        <v>502</v>
+      </c>
       <c r="L24" t="s">
         <v>9</v>
       </c>
@@ -1265,6 +1346,9 @@
       </c>
       <c r="Q24">
         <v>5000</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
